--- a/Texas/SiteSpecificAmounts/TX_SiteSpecificAmounts Schema Mapping to WaDE_QA.xlsx
+++ b/Texas/SiteSpecificAmounts/TX_SiteSpecificAmounts Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Texas\SiteSpecificAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A50682-6E7B-4996-83F6-2055774C3996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA69D58-A404-4A1B-818E-DF98B68D535D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="645" activeTab="5" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" activeTab="6" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="292">
   <si>
     <t>Name</t>
   </si>
@@ -718,19 +718,10 @@
     <t>Organizations:</t>
   </si>
   <si>
-    <t>Intake</t>
-  </si>
-  <si>
     <t>SS data for Water Use.</t>
   </si>
   <si>
-    <t>Can do a monthly or annual time series with available data.</t>
-  </si>
-  <si>
     <t>Shape file data is Regional Water Planning Areas data: https://www.twdb.texas.gov/mapping/gisdata.asp</t>
-  </si>
-  <si>
-    <t>Time series data comes from the Public Water Systems - Historical Municipal Water Intake Report for Public Water Systems by Water Planning Region reports.  Each report is for a Water Planning area.  Had to download each region area individual and combine into one workable file: https://www.twdb.texas.gov/waterplanning/waterusesurvey/estimates/index.asp</t>
   </si>
   <si>
     <t>Shapefile for Water Service Boundaries: https://www3.twdb.texas.gov/apps/waterserviceboundaries</t>
@@ -740,9 +731,6 @@
   </si>
   <si>
     <t>Consider it to be POU only.</t>
-  </si>
-  <si>
-    <t>Issue of WaDE not having a 1-many relationship with sites to water source type. This means that each site will have to be duplicated so we can get a water source type in. We are considering a future schema change to help fix this.</t>
   </si>
   <si>
     <t>nhouston@usgs.gov</t>
@@ -787,43 +775,10 @@
     <t>IDwr_V1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Intake_Annual_MI_Groundwater
-Intake_Annual_MI_Surface Water
-Intake_Annual_MI_Reuse
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Intake_Monthly_MI_Groundwater
-Intake_Monthly_MI_Surface Water
-Intake_Monthly_MI_Reuse</t>
-    </r>
-  </si>
-  <si>
     <t>Estimate</t>
   </si>
   <si>
     <t>https://www.twdb.texas.gov/waterplanning/waterusesurvey/estimates/index.asp</t>
-  </si>
-  <si>
-    <t>Historical Municipal Water Intake Report</t>
-  </si>
-  <si>
-    <t>Surface Ground Water</t>
   </si>
   <si>
     <t>(blank)</t>
@@ -833,9 +788,6 @@
   </si>
   <si>
     <t>TXss_M1</t>
-  </si>
-  <si>
-    <t>Water use intake report for all surveyed public water systems by water planning region, including geographic information, monthly intake volumes and water source (groundwater, surface water or reuse).</t>
   </si>
   <si>
     <t>Monthly</t>
@@ -927,10 +879,6 @@
     <t>Use Jan - Dec, and Total_Intake__Gallons_ fields as inputs</t>
   </si>
   <si>
-    <t>Jan-Dec
-Total_Intake__Gallons_</t>
-  </si>
-  <si>
     <t>Population_Served</t>
   </si>
   <si>
@@ -984,6 +932,163 @@
   <si>
     <t>TXss_V + counter</t>
   </si>
+  <si>
+    <t>Intake  volumes are in gallons unles otherwise noted. 1 Acre-Foot = 325,851 gallons</t>
+  </si>
+  <si>
+    <t>use volumes are also in Gallons</t>
+  </si>
+  <si>
+    <t>http://www.twdb.texas.gov/waterplanning/waterusesurvey/estimates/index.asp</t>
+  </si>
+  <si>
+    <r>
+      <t>(1) '</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Historical Municipal Water Intake Report for Public Water Systems by Water Planning Region</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' reports.  Each report is for a Water Planning area.  Had to download each region area individual and combine into one workable file. https://www.twdb.texas.gov/waterplanning/waterusesurvey/estimates/index.asp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(2) '</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Historical Categorical Connections and Volumes by Public Water System, 2016 and Later</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' reports.  Annual retail wate ruse volumes 2019-2016.  Download and combine</t>
+    </r>
+  </si>
+  <si>
+    <t>Can do a monthly or annual time series with available (1) data, and annual with (2) data.</t>
+  </si>
+  <si>
+    <t>Not sure of units for PWS Water Use.  As it's volume, I'm assuming it's G to match Intake data</t>
+  </si>
+  <si>
+    <t>TXss_M1,
+TXss_M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Ground Water
+</t>
+  </si>
+  <si>
+    <t>Water use intake report for all surveyed public water systems by water planning region, including geographic information, monthly intake volumes and water source (groundwater, surface water or reuse).
+"Annual retail water use volumes and connections by use category (single-family, multi-family, commercial, institutional, industrial, agricultural, reuse and unmetered) for all surveyed public water systems."</t>
+  </si>
+  <si>
+    <t>Historical Municipal Water Intake Report
+"Historical Categorical Connections and Volumes"</t>
+  </si>
+  <si>
+    <t>Intake
+Water Use</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Intake_Annual_MI_Groundwater
+Intake_Annual_MI_Surface Water
+Intake_Annual_MI_Reuse
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intake_Monthly_MI_Groundwater
+Intake_Monthly_MI_Surface Water
+Intake_Monthly_MI_Reuse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Water Use_Annual_SingleFamily_Unspecified
+Water Use_Annual_MultiFamily_Unspecified
+Water Use_Annual_Commercial_Unspecified
+Water Use_Annual_Industrial_Unspecified
+Water Use_Annual_Institutional_Unspecified
+Water Use_Annual_Agriculture_Unspecified
+Water Use_Annual_Reuse_Unspecified
+Water Use_Annual_TotalMetered_Unspecified
+Water Use_Annual_TotalUnmetered_Unspecified</t>
+    </r>
+  </si>
+  <si>
+    <t>Historical Municipal
+PWS Water Use</t>
+  </si>
+  <si>
+    <t>Municipal
+Depends on volume use</t>
+  </si>
+  <si>
+    <t>Jan-Dec
+Total_Intake__Gallons_
+Depends on volume use</t>
+  </si>
+  <si>
+    <t>see preprocessing, custom for each timeseries of interest</t>
+  </si>
 </sst>
 </file>
 
@@ -992,7 +1097,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1135,6 +1240,35 @@
     <font>
       <b/>
       <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1572,9 +1706,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1729,6 +1860,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2044,10 +2176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2070,70 +2202,228 @@
         <v>224</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="58" t="s">
+        <v>277</v>
+      </c>
+    </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="112" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="111" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="59" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="61" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="59"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="58" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" s="59"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="112" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="58" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="62" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C10" s="59"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="C12" s="59"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="114" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14"/>
-      <c r="C14" s="59"/>
+      <c r="C15" s="59"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="113"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="61"/>
+      <c r="B17" s="113"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="61"/>
-      <c r="G18" s="60"/>
+      <c r="B18" s="115" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="61"/>
+      <c r="B19" s="113"/>
+      <c r="G19" s="60"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="61"/>
+      <c r="B20" s="113"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="113"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="113"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="113"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="113"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="113"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="113"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="113"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="113"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="113"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="113"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="113"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="113"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="113"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="113"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="113"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="113"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="113"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="113"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="113"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="113"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="113"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="113"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="113"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="113"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="113"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="113"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="113"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="113"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="113"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="113"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="113"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="113"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="113"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="113"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="113"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="113"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="113"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="113"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="113"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="113"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="113"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="113"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="113"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="113"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="113"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="113"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="113"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2145,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8657C7D5-E8C6-4B34-858E-8D6A434024B4}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2155,7 +2445,7 @@
     <col min="2" max="2" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="52" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.109375" style="2" bestFit="1" customWidth="1"/>
@@ -2235,7 +2525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -2248,13 +2538,13 @@
       <c r="D4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="99" t="s">
-        <v>255</v>
+      <c r="E4" s="98" t="s">
+        <v>282</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="62" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="21" t="s">
@@ -2280,13 +2570,13 @@
       <c r="D5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="64" t="s">
-        <v>252</v>
+      <c r="E5" s="63" t="s">
+        <v>283</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="62" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="21" t="s">
@@ -2312,13 +2602,13 @@
       <c r="D6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="64" t="s">
-        <v>253</v>
+      <c r="E6" s="63" t="s">
+        <v>246</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="62" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="21" t="s">
@@ -2344,13 +2634,13 @@
       <c r="D7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="64" t="s">
-        <v>253</v>
+      <c r="E7" s="63" t="s">
+        <v>246</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="62" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="21" t="s">
@@ -2376,13 +2666,13 @@
       <c r="D8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="64" t="s">
-        <v>253</v>
+      <c r="E8" s="63" t="s">
+        <v>246</v>
       </c>
       <c r="F8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="G8" s="62" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="21" t="s">
@@ -2395,7 +2685,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="84" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>75</v>
       </c>
@@ -2408,13 +2698,13 @@
       <c r="D9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="64" t="s">
-        <v>256</v>
+      <c r="E9" s="63" t="s">
+        <v>284</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="62" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="21" t="s">
@@ -2427,7 +2717,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>78</v>
       </c>
@@ -2440,13 +2730,13 @@
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="64" t="s">
-        <v>251</v>
+      <c r="E10" s="63" t="s">
+        <v>285</v>
       </c>
       <c r="F10" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="62" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="21" t="s">
@@ -2459,7 +2749,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>81</v>
       </c>
@@ -2473,12 +2763,12 @@
         <v>11</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="62" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -2505,12 +2795,12 @@
         <v>15</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="63" t="s">
+      <c r="G12" s="62" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="21" t="s">
@@ -2549,7 +2839,7 @@
     <col min="2" max="2" width="12.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.21875" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="2" bestFit="1" customWidth="1"/>
@@ -2619,7 +2909,7 @@
       <c r="I3" s="35">
         <v>16</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="83" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2636,8 +2926,8 @@
       <c r="D4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="92" t="s">
-        <v>283</v>
+      <c r="E4" s="91" t="s">
+        <v>274</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>11</v>
@@ -2649,9 +2939,9 @@
         <v>11</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="J4" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="J4" s="83" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2668,7 +2958,7 @@
       <c r="D5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="98">
+      <c r="E5" s="97">
         <v>1</v>
       </c>
       <c r="F5" s="37"/>
@@ -2679,7 +2969,7 @@
       <c r="I5" s="35">
         <v>1</v>
       </c>
-      <c r="J5" s="84" t="s">
+      <c r="J5" s="83" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2696,8 +2986,8 @@
       <c r="D6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="98" t="s">
-        <v>257</v>
+      <c r="E6" s="97" t="s">
+        <v>249</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="28"/>
@@ -2707,7 +2997,7 @@
       <c r="I6" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="84" t="s">
+      <c r="J6" s="83" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2724,8 +3014,8 @@
       <c r="D7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="98" t="s">
-        <v>258</v>
+      <c r="E7" s="97" t="s">
+        <v>250</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="28"/>
@@ -2735,7 +3025,7 @@
       <c r="I7" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="84" t="s">
+      <c r="J7" s="83" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2752,8 +3042,8 @@
       <c r="D8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="98" t="s">
-        <v>259</v>
+      <c r="E8" s="97" t="s">
+        <v>251</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="28"/>
@@ -2763,7 +3053,7 @@
       <c r="I8" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="84" t="s">
+      <c r="J8" s="83" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2780,8 +3070,8 @@
       <c r="D9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="98" t="s">
-        <v>259</v>
+      <c r="E9" s="97" t="s">
+        <v>251</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="28"/>
@@ -2791,7 +3081,7 @@
       <c r="I9" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="J9" s="84" t="s">
+      <c r="J9" s="83" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2808,7 +3098,7 @@
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="97">
         <v>1</v>
       </c>
       <c r="F10" s="37"/>
@@ -2819,7 +3109,7 @@
       <c r="I10" s="35">
         <v>10</v>
       </c>
-      <c r="J10" s="84" t="s">
+      <c r="J10" s="83" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2836,8 +3126,8 @@
       <c r="D11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="98" t="s">
-        <v>260</v>
+      <c r="E11" s="97" t="s">
+        <v>252</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="28"/>
@@ -2847,11 +3137,11 @@
       <c r="I11" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="84" t="s">
+      <c r="J11" s="83" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>107</v>
       </c>
@@ -2864,8 +3154,8 @@
       <c r="D12" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="111" t="s">
-        <v>225</v>
+      <c r="E12" s="110" t="s">
+        <v>286</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="28"/>
@@ -2875,11 +3165,11 @@
       <c r="I12" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="J12" s="84" t="s">
+      <c r="J12" s="83" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="192" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>110</v>
       </c>
@@ -2892,8 +3182,8 @@
       <c r="D13" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="111" t="s">
-        <v>248</v>
+      <c r="E13" s="110" t="s">
+        <v>287</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="28"/>
@@ -2903,7 +3193,7 @@
       <c r="I13" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="J13" s="84" t="s">
+      <c r="J13" s="83" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3047,8 +3337,8 @@
       <c r="D4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="91" t="s">
-        <v>242</v>
+      <c r="E4" s="90" t="s">
+        <v>238</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>11</v>
@@ -3080,7 +3370,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>11</v>
@@ -3111,8 +3401,8 @@
       <c r="D6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="64" t="s">
-        <v>235</v>
+      <c r="E6" s="63" t="s">
+        <v>231</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>11</v>
@@ -3143,8 +3433,8 @@
       <c r="D7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="97" t="s">
-        <v>236</v>
+      <c r="E7" s="96" t="s">
+        <v>232</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>11</v>
@@ -3175,8 +3465,8 @@
       <c r="D8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="64" t="s">
-        <v>237</v>
+      <c r="E8" s="63" t="s">
+        <v>233</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>11</v>
@@ -3207,8 +3497,8 @@
       <c r="D9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="98" t="s">
-        <v>238</v>
+      <c r="E9" s="97" t="s">
+        <v>234</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>11</v>
@@ -3239,8 +3529,8 @@
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="64" t="s">
-        <v>239</v>
+      <c r="E10" s="63" t="s">
+        <v>235</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>11</v>
@@ -3272,7 +3562,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>11</v>
@@ -3303,8 +3593,8 @@
       <c r="D12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="64" t="s">
-        <v>241</v>
+      <c r="E12" s="63" t="s">
+        <v>237</v>
       </c>
       <c r="F12" s="37" t="s">
         <v>11</v>
@@ -3365,7 +3655,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3468,7 +3758,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>11</v>
@@ -3500,7 +3790,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>11</v>
@@ -3532,7 +3822,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>11</v>
@@ -3595,14 +3885,14 @@
       <c r="D8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="44" t="s">
-        <v>262</v>
+      <c r="E8" s="65" t="s">
+        <v>254</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="G8" s="115" t="s">
-        <v>261</v>
+        <v>259</v>
+      </c>
+      <c r="G8" s="114" t="s">
+        <v>253</v>
       </c>
       <c r="H8" s="45" t="s">
         <v>11</v>
@@ -3628,7 +3918,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>11</v>
@@ -3663,10 +3953,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H10" s="45" t="s">
         <v>11</v>
@@ -3701,7 +3991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7F8C98-3861-4B86-BE27-886CB915286E}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -3788,18 +4078,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="99" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="102"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="103" t="s">
-        <v>245</v>
+      <c r="E4" s="102" t="s">
+        <v>241</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>11</v>
@@ -3816,28 +4106,28 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="91" t="s">
-        <v>246</v>
-      </c>
-      <c r="F5" s="92" t="s">
+      <c r="E5" s="90" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="82" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="48" t="s">
@@ -3861,17 +4151,17 @@
         <v>11</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="62" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="44" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>180</v>
@@ -3887,20 +4177,20 @@
       <c r="C7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="64" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="66" t="s">
-        <v>266</v>
-      </c>
-      <c r="G7" s="67" t="s">
-        <v>265</v>
+      <c r="F7" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>257</v>
       </c>
       <c r="H7" s="13"/>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="63" t="s">
         <v>182</v>
       </c>
       <c r="J7" s="16" t="s">
@@ -3920,20 +4210,20 @@
       <c r="D8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="65" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="G8" s="67" t="s">
-        <v>268</v>
+        <v>259</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>260</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="68" t="s">
+      <c r="J8" s="67" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3947,20 +4237,20 @@
       <c r="C9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="63">
         <v>4326</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="69"/>
-      <c r="I9" s="64" t="s">
+      <c r="H9" s="68"/>
+      <c r="I9" s="63" t="s">
         <v>65</v>
       </c>
       <c r="J9" s="16" t="s">
@@ -3980,17 +4270,17 @@
       <c r="D10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="66" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="67" t="s">
+      <c r="F10" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="66" t="s">
         <v>139</v>
       </c>
       <c r="H10" s="13"/>
-      <c r="I10" s="64"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="16" t="s">
         <v>51</v>
       </c>
@@ -4005,16 +4295,16 @@
       <c r="C11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="64" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="62" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="13"/>
@@ -4039,19 +4329,19 @@
         <v>11</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="63" t="s">
+      <c r="G12" s="62" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="68" t="s">
+      <c r="J12" s="67" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4069,19 +4359,19 @@
         <v>11</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F13" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="62" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="68" t="s">
+      <c r="J13" s="67" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4098,17 +4388,17 @@
       <c r="D14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="66" t="s">
-        <v>266</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>270</v>
+      <c r="F14" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>262</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="64" t="s">
+      <c r="I14" s="63" t="s">
         <v>191</v>
       </c>
       <c r="J14" s="16" t="s">
@@ -4128,17 +4418,17 @@
       <c r="D15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="66" t="s">
-        <v>266</v>
-      </c>
-      <c r="G15" s="63" t="s">
-        <v>269</v>
+      <c r="F15" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>261</v>
       </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="64">
+      <c r="I15" s="63">
         <v>-1067.700435</v>
       </c>
       <c r="J15" s="16" t="s">
@@ -4159,12 +4449,12 @@
         <v>11</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="62" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="13"/>
@@ -4185,16 +4475,16 @@
       <c r="C17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="64" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F17" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="63" t="s">
+      <c r="G17" s="62" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="13"/>
@@ -4218,16 +4508,16 @@
       <c r="D18" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="98" t="s">
-        <v>244</v>
+      <c r="E18" s="97" t="s">
+        <v>240</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="67" t="s">
+      <c r="G18" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="70" t="s">
+      <c r="I18" s="69" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4246,13 +4536,13 @@
         <v>11</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>266</v>
-      </c>
-      <c r="G19" s="63" t="s">
-        <v>271</v>
+        <v>258</v>
+      </c>
+      <c r="G19" s="62" t="s">
+        <v>263</v>
       </c>
       <c r="H19" s="13"/>
-      <c r="I19" s="64" t="s">
+      <c r="I19" s="63" t="s">
         <v>201</v>
       </c>
       <c r="J19" s="16" t="s">
@@ -4276,13 +4566,13 @@
         <v>11</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>266</v>
-      </c>
-      <c r="G20" s="63" t="s">
-        <v>272</v>
-      </c>
-      <c r="H20" s="69"/>
-      <c r="I20" s="64">
+        <v>258</v>
+      </c>
+      <c r="G20" s="62" t="s">
+        <v>264</v>
+      </c>
+      <c r="H20" s="68"/>
+      <c r="I20" s="63">
         <v>3703994</v>
       </c>
       <c r="J20" s="16" t="s">
@@ -4303,19 +4593,19 @@
         <v>11</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F21" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="62" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="13"/>
-      <c r="I21" s="64" t="s">
+      <c r="I21" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="J21" s="68" t="s">
+      <c r="J21" s="67" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4329,20 +4619,20 @@
       <c r="C22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="66" t="s">
-        <v>273</v>
+      <c r="E22" s="65" t="s">
+        <v>265</v>
       </c>
       <c r="F22" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="63" t="s">
+      <c r="G22" s="62" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="13"/>
-      <c r="I22" s="64" t="s">
+      <c r="I22" s="63" t="s">
         <v>208</v>
       </c>
       <c r="J22" s="16" t="s">
@@ -4359,20 +4649,20 @@
       <c r="C23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="66" t="s">
-        <v>241</v>
-      </c>
-      <c r="F23" s="66" t="s">
+      <c r="E23" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="F23" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="67" t="s">
+      <c r="G23" s="66" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="13"/>
-      <c r="I23" s="64" t="s">
+      <c r="I23" s="63" t="s">
         <v>209</v>
       </c>
       <c r="J23" s="16" t="s">
@@ -4393,19 +4683,19 @@
         <v>11</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F24" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="63" t="s">
+      <c r="G24" s="62" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="68" t="s">
+      <c r="J24" s="67" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4422,8 +4712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E07544-54C6-4298-B1F4-AA27E9BE2694}">
   <dimension ref="A1:K16410"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4442,46 +4732,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="H1" s="72"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="78" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="80" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -4490,21 +4780,21 @@
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="81" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="84" t="s">
+      <c r="H3" s="64"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="84"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="80" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -4525,14 +4815,14 @@
       <c r="G4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="83"/>
+      <c r="H4" s="82"/>
       <c r="I4" s="48"/>
-      <c r="J4" s="85" t="s">
+      <c r="J4" s="84" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="80" t="s">
         <v>159</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -4553,14 +4843,14 @@
       <c r="G5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="83"/>
+      <c r="H5" s="82"/>
       <c r="I5" s="48"/>
-      <c r="J5" s="85" t="s">
+      <c r="J5" s="84" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="85" t="s">
         <v>156</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -4581,14 +4871,14 @@
       <c r="G6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="83"/>
+      <c r="H6" s="82"/>
       <c r="I6" s="48"/>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="84" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="80" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -4609,14 +4899,14 @@
       <c r="G7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="83"/>
+      <c r="H7" s="82"/>
       <c r="I7" s="48"/>
-      <c r="J7" s="85" t="s">
+      <c r="J7" s="84" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="80" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -4637,9 +4927,9 @@
       <c r="G8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="83"/>
+      <c r="H8" s="82"/>
       <c r="I8" s="48"/>
-      <c r="J8" s="85" t="s">
+      <c r="J8" s="84" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4656,8 +4946,8 @@
       <c r="D9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="87" t="s">
-        <v>255</v>
+      <c r="E9" s="86" t="s">
+        <v>248</v>
       </c>
       <c r="F9" s="46" t="s">
         <v>11</v>
@@ -4665,7 +4955,7 @@
       <c r="G9" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="83" t="s">
+      <c r="H9" s="82" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="48" t="s">
@@ -4688,16 +4978,16 @@
       <c r="D10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="87" t="s">
-        <v>254</v>
-      </c>
-      <c r="F10" s="66" t="s">
+      <c r="E10" s="86" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="83" t="s">
+      <c r="H10" s="82" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="48" t="s">
@@ -4720,16 +5010,16 @@
       <c r="D11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="88" t="s">
-        <v>274</v>
-      </c>
-      <c r="F11" s="66" t="s">
+      <c r="E11" s="87" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="83" t="s">
+      <c r="H11" s="82" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="48" t="s">
@@ -4740,28 +5030,28 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="106" t="s">
+      <c r="D12" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="F12" s="105" t="s">
+      <c r="E12" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="F12" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="93" t="s">
+      <c r="G12" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="83" t="s">
+      <c r="H12" s="82" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="48" t="s">
@@ -4772,7 +5062,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="80" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -4784,23 +5074,23 @@
       <c r="D13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="F13" s="66" t="s">
+      <c r="E13" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="F13" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G13" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="83"/>
+      <c r="H13" s="82"/>
       <c r="I13" s="48"/>
-      <c r="J13" s="85" t="s">
+      <c r="J13" s="84" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A14" s="81" t="s">
+    <row r="14" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+      <c r="A14" s="80" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -4812,21 +5102,21 @@
       <c r="D14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="107" t="s">
-        <v>278</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="G14" s="108" t="s">
-        <v>279</v>
-      </c>
-      <c r="H14" s="83"/>
+      <c r="E14" s="106" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" s="110" t="s">
+        <v>288</v>
+      </c>
+      <c r="G14" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="H14" s="82"/>
       <c r="I14" s="48"/>
-      <c r="J14" s="85"/>
+      <c r="J14" s="84"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="80" t="s">
         <v>171</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -4838,21 +5128,21 @@
       <c r="D15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="F15" s="66" t="s">
+      <c r="E15" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="F15" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="66" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="48"/>
-      <c r="J15" s="85" t="s">
+      <c r="J15" s="84" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="36" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>215</v>
       </c>
@@ -4865,16 +5155,16 @@
       <c r="D16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="107" t="s">
-        <v>276</v>
+      <c r="E16" s="106" t="s">
+        <v>291</v>
       </c>
       <c r="F16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="83" t="s">
+      <c r="G16" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="H16" s="82" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="48" t="s">
@@ -4885,7 +5175,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="80" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -4897,23 +5187,23 @@
       <c r="D17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="104" t="s">
+      <c r="E17" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="66" t="s">
-        <v>266</v>
-      </c>
-      <c r="G17" s="109" t="s">
-        <v>277</v>
-      </c>
-      <c r="H17" s="83"/>
+      <c r="F17" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="G17" s="108" t="s">
+        <v>269</v>
+      </c>
+      <c r="H17" s="82"/>
       <c r="I17" s="48"/>
-      <c r="J17" s="85" t="s">
+      <c r="J17" s="84" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="80" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -4925,23 +5215,23 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="F18" s="66" t="s">
+      <c r="E18" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="67" t="s">
+      <c r="G18" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="83"/>
+      <c r="H18" s="82"/>
       <c r="I18" s="48"/>
-      <c r="J18" s="85" t="s">
+      <c r="J18" s="84" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="80" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -4953,22 +5243,22 @@
       <c r="D19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="F19" s="66" t="s">
+      <c r="E19" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="F19" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="67" t="s">
+      <c r="G19" s="66" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="48"/>
-      <c r="J19" s="85" t="s">
+      <c r="J19" s="84" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="80" t="s">
         <v>216</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -4980,23 +5270,23 @@
       <c r="D20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="110">
-        <v>44206</v>
-      </c>
-      <c r="F20" s="66" t="s">
+      <c r="E20" s="109">
+        <v>44624</v>
+      </c>
+      <c r="F20" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="83"/>
+      <c r="H20" s="82"/>
       <c r="I20" s="48"/>
-      <c r="J20" s="85" t="s">
+      <c r="J20" s="84" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="80" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -5008,23 +5298,23 @@
       <c r="D21" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="F21" s="66" t="s">
+      <c r="E21" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="F21" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="67" t="s">
+      <c r="G21" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="83"/>
+      <c r="H21" s="82"/>
       <c r="I21" s="48"/>
-      <c r="J21" s="85" t="s">
+      <c r="J21" s="84" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="80" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -5036,22 +5326,22 @@
       <c r="D22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="F22" s="66" t="s">
+      <c r="E22" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="F22" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="67" t="s">
+      <c r="G22" s="66" t="s">
         <v>11</v>
       </c>
       <c r="I22" s="48"/>
-      <c r="J22" s="85" t="s">
+      <c r="J22" s="84" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="80" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -5063,23 +5353,23 @@
       <c r="D23" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="F23" s="66" t="s">
+      <c r="E23" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="67" t="s">
+      <c r="G23" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="83"/>
+      <c r="H23" s="82"/>
       <c r="I23" s="48"/>
-      <c r="J23" s="85" t="s">
+      <c r="J23" s="84" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="80" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -5091,23 +5381,23 @@
       <c r="D24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="F24" s="66" t="s">
+      <c r="E24" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="F24" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="67" t="s">
+      <c r="G24" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="83"/>
+      <c r="H24" s="82"/>
       <c r="I24" s="48"/>
-      <c r="J24" s="85" t="s">
+      <c r="J24" s="84" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="80" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -5119,23 +5409,23 @@
       <c r="D25" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="65" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="G25" s="67" t="s">
-        <v>280</v>
-      </c>
-      <c r="H25" s="83"/>
+        <v>259</v>
+      </c>
+      <c r="G25" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="H25" s="82"/>
       <c r="I25" s="48"/>
-      <c r="J25" s="85" t="s">
+      <c r="J25" s="84" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="80" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -5147,23 +5437,23 @@
       <c r="D26" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="F26" s="66" t="s">
+      <c r="E26" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="F26" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="67" t="s">
+      <c r="G26" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="83"/>
+      <c r="H26" s="82"/>
       <c r="I26" s="48"/>
-      <c r="J26" s="85" t="s">
+      <c r="J26" s="84" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="80" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -5175,21 +5465,21 @@
       <c r="D27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="F27" s="66" t="s">
+      <c r="E27" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="F27" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="67" t="s">
+      <c r="G27" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="83"/>
+      <c r="H27" s="82"/>
       <c r="I27" s="48"/>
-      <c r="J27" s="95"/>
+      <c r="J27" s="94"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="80" t="s">
         <v>217</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -5201,23 +5491,23 @@
       <c r="D28" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="66" t="s">
-        <v>258</v>
+      <c r="E28" s="65" t="s">
+        <v>250</v>
       </c>
       <c r="F28" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="63" t="s">
+      <c r="G28" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="83"/>
+      <c r="H28" s="82"/>
       <c r="I28" s="48"/>
-      <c r="J28" s="95" t="s">
+      <c r="J28" s="94" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="81" t="s">
+      <c r="A29" s="80" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -5229,23 +5519,23 @@
       <c r="D29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="104" t="s">
+      <c r="E29" s="103" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="G29" s="109" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="H29" s="83"/>
+      <c r="H29" s="82"/>
       <c r="I29" s="48"/>
-      <c r="J29" s="95" t="s">
+      <c r="J29" s="94" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="81" t="s">
+      <c r="A30" s="80" t="s">
         <v>218</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -5257,22 +5547,22 @@
       <c r="D30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="F30" s="66" t="s">
+      <c r="E30" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="F30" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="67" t="s">
+      <c r="G30" s="66" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="48"/>
-      <c r="J30" s="84" t="s">
+      <c r="J30" s="83" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="80" t="s">
         <v>219</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -5284,23 +5574,23 @@
       <c r="D31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="104" t="s">
-        <v>282</v>
+      <c r="E31" s="103" t="s">
+        <v>273</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="G31" s="109" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="83"/>
+      <c r="H31" s="82"/>
       <c r="I31" s="48"/>
-      <c r="J31" s="95" t="s">
+      <c r="J31" s="94" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="80" t="s">
         <v>220</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -5312,18 +5602,18 @@
       <c r="D32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="104" t="s">
-        <v>281</v>
+      <c r="E32" s="103" t="s">
+        <v>272</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="G32" s="109" t="s">
+        <v>259</v>
+      </c>
+      <c r="G32" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="H32" s="83"/>
+      <c r="H32" s="82"/>
       <c r="I32" s="48"/>
-      <c r="J32" s="85" t="s">
+      <c r="J32" s="84" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5334,14 +5624,14 @@
       <c r="A36" s="59"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="96"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="95"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="96"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="95"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="59"/>

--- a/Texas/SiteSpecificAmounts/TX_SiteSpecificAmounts Schema Mapping to WaDE_QA.xlsx
+++ b/Texas/SiteSpecificAmounts/TX_SiteSpecificAmounts Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Texas\SiteSpecificAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA69D58-A404-4A1B-818E-DF98B68D535D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01BF536-D582-4D44-9134-ACEC64244B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" activeTab="6" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="293">
   <si>
     <t>Name</t>
   </si>
@@ -1088,6 +1088,9 @@
   </si>
   <si>
     <t>see preprocessing, custom for each timeseries of interest</t>
+  </si>
+  <si>
+    <t>Temp fix of removing duplicate entries in the Historical Municipal data.</t>
   </si>
 </sst>
 </file>
@@ -2178,8 +2181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2278,7 +2281,9 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="113"/>
+      <c r="B19" s="115" t="s">
+        <v>292</v>
+      </c>
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
@@ -4712,8 +4717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E07544-54C6-4298-B1F4-AA27E9BE2694}">
   <dimension ref="A1:K16410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
